--- a/results/I3_N5_M3_T15_C200_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.4164527964958</v>
+        <v>262.6464527964957</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005000114440917969</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.77</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999973</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999972</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.5099999999989</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>127.0749999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2799999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7849999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>128.5799999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>164.9050000000009</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>161.4100000000009</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>164.8650000000009</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>169.8800000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9900000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000036</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>164.9050000000009</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>161.4100000000009</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>164.8650000000009</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>169.8800000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>168.9900000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9700000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>136.8550000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>127.2550000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.4800000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>129.5099999999989</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>127.0749999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.2799999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>128.7849999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>128.5799999999988</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
